--- a/传感器/连续物位测量/静压式液位变送器/迈安德物料定义-01属性表-外购设备-静压式液位变送器.xlsx
+++ b/传感器/连续物位测量/静压式液位变送器/迈安德物料定义-01属性表-外购设备-静压式液位变送器.xlsx
@@ -28,12 +28,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -48,8 +58,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -365,13 +377,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="80"/>
+    <col customWidth="1" max="8" min="8" width="50"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -404,12 +426,12 @@
           <t>属性类型</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>翻译脚本</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>创建属性脚本</t>
         </is>
@@ -445,11 +467,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E2," = ",B2,)</f>
         <v/>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>CONCATENATE("#"&amp;B2&amp;"
 add attribute "&amp;E2&amp;"
   type "&amp;F2&amp;"
@@ -493,11 +515,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E3," = ",B3,)</f>
         <v/>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f>CONCATENATE("#"&amp;B3&amp;"
 add attribute "&amp;E3&amp;"
   type "&amp;F3&amp;"
@@ -541,11 +563,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E4," = ",B4,)</f>
         <v/>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>CONCATENATE("#"&amp;B4&amp;"
 add attribute "&amp;E4&amp;"
   type "&amp;F4&amp;"
@@ -589,11 +611,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E5," = ",B5,)</f>
         <v/>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>CONCATENATE("#"&amp;B5&amp;"
 add attribute "&amp;E5&amp;"
   type "&amp;F5&amp;"
@@ -637,11 +659,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E6," = ",B6,)</f>
         <v/>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>CONCATENATE("#"&amp;B6&amp;"
 add attribute "&amp;E6&amp;"
   type "&amp;F6&amp;"
@@ -685,11 +707,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E7," = ",B7,)</f>
         <v/>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>CONCATENATE("#"&amp;B7&amp;"
 add attribute "&amp;E7&amp;"
   type "&amp;F7&amp;"
@@ -733,11 +755,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E8," = ",B8,)</f>
         <v/>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f>CONCATENATE("#"&amp;B8&amp;"
 add attribute "&amp;E8&amp;"
   type "&amp;F8&amp;"
@@ -781,11 +803,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E9," = ",B9,)</f>
         <v/>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f>CONCATENATE("#"&amp;B9&amp;"
 add attribute "&amp;E9&amp;"
   type "&amp;F9&amp;"
@@ -829,11 +851,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E10," = ",B10,)</f>
         <v/>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f>CONCATENATE("#"&amp;B10&amp;"
 add attribute "&amp;E10&amp;"
   type "&amp;F10&amp;"
@@ -877,11 +899,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E11," = ",B11,)</f>
         <v/>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f>CONCATENATE("#"&amp;B11&amp;"
 add attribute "&amp;E11&amp;"
   type "&amp;F11&amp;"
@@ -925,11 +947,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E12," = ",B12,)</f>
         <v/>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f>CONCATENATE("#"&amp;B12&amp;"
 add attribute "&amp;E12&amp;"
   type "&amp;F12&amp;"
@@ -973,11 +995,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E13," = ",B13,)</f>
         <v/>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f>CONCATENATE("#"&amp;B13&amp;"
 add attribute "&amp;E13&amp;"
   type "&amp;F13&amp;"
@@ -990,6 +1012,10 @@
 mod prog eServiceSchemaVariableMapping.tcl add property attribute_"&amp;E13&amp;" to att "&amp;E13&amp;";")</f>
         <v/>
       </c>
+    </row>
+    <row r="14">
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1002,13 +1028,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="6"/>
+    <col customWidth="1" max="3" min="3" width="28"/>
+    <col customWidth="1" max="4" min="4" width="37"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="40"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="100"/>
+    <col customWidth="1" max="9" min="9" width="150"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1046,12 +1083,12 @@
           <t>值(不能有中文)</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Range值脚本</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Range值翻译</t>
         </is>
@@ -1092,11 +1129,11 @@
           <t>1181</t>
         </is>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>CONCATENATE(A2," ",D2," ",E2," ","="," ","'",G2,"'",";")</f>
         <v/>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>CONCATENATE("emxFramework.Range.",D2,,".",G2," ="," ",F2)</f>
         <v/>
       </c>
@@ -1136,11 +1173,11 @@
           <t>1179</t>
         </is>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>CONCATENATE(A3," ",D3," ",E3," ","="," ","'",G3,"'",";")</f>
         <v/>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f>CONCATENATE("emxFramework.Range.",D3,,".",G3," ="," ",F3)</f>
         <v/>
       </c>
@@ -1180,11 +1217,11 @@
           <t>1178</t>
         </is>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f>CONCATENATE(A4," ",D4," ",E4," ","="," ","'",G4,"'",";")</f>
         <v/>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f>CONCATENATE("emxFramework.Range.",D4,,".",G4," ="," ",F4)</f>
         <v/>
       </c>
@@ -1216,11 +1253,11 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5">
+      <c r="H5" s="1">
         <f>CONCATENATE(A5," ",D5," ",E5," ","="," ","'",G5,"'",";")</f>
         <v/>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f>CONCATENATE("emxFramework.Range.",D5,,".",G5," ="," ",F5)</f>
         <v/>
       </c>
@@ -1260,11 +1297,11 @@
           <t>productline1</t>
         </is>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f>CONCATENATE(A6," ",D6," ",E6," ","="," ","'",G6,"'",";")</f>
         <v/>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f>CONCATENATE("emxFramework.Range.",D6,,".",G6," ="," ",F6)</f>
         <v/>
       </c>
@@ -1304,11 +1341,11 @@
           <t>productline2</t>
         </is>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f>CONCATENATE(A7," ",D7," ",E7," ","="," ","'",G7,"'",";")</f>
         <v/>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f>CONCATENATE("emxFramework.Range.",D7,,".",G7," ="," ",F7)</f>
         <v/>
       </c>
@@ -1348,11 +1385,11 @@
           <t>productline3</t>
         </is>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f>CONCATENATE(A8," ",D8," ",E8," ","="," ","'",G8,"'",";")</f>
         <v/>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f>CONCATENATE("emxFramework.Range.",D8,,".",G8," ="," ",F8)</f>
         <v/>
       </c>
@@ -1392,11 +1429,11 @@
           <t>productline4</t>
         </is>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f>CONCATENATE(A9," ",D9," ",E9," ","="," ","'",G9,"'",";")</f>
         <v/>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f>CONCATENATE("emxFramework.Range.",D9,,".",G9," ="," ",F9)</f>
         <v/>
       </c>
@@ -1436,11 +1473,11 @@
           <t>productline5</t>
         </is>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f>CONCATENATE(A10," ",D10," ",E10," ","="," ","'",G10,"'",";")</f>
         <v/>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f>CONCATENATE("emxFramework.Range.",D10,,".",G10," ="," ",F10)</f>
         <v/>
       </c>
@@ -1480,11 +1517,11 @@
           <t>productline6</t>
         </is>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f>CONCATENATE(A11," ",D11," ",E11," ","="," ","'",G11,"'",";")</f>
         <v/>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f>CONCATENATE("emxFramework.Range.",D11,,".",G11," ="," ",F11)</f>
         <v/>
       </c>
@@ -1524,11 +1561,11 @@
           <t>productline7</t>
         </is>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f>CONCATENATE(A12," ",D12," ",E12," ","="," ","'",G12,"'",";")</f>
         <v/>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f>CONCATENATE("emxFramework.Range.",D12,,".",G12," ="," ",F12)</f>
         <v/>
       </c>
@@ -1568,11 +1605,11 @@
           <t>productline8</t>
         </is>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f>CONCATENATE(A13," ",D13," ",E13," ","="," ","'",G13,"'",";")</f>
         <v/>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f>CONCATENATE("emxFramework.Range.",D13,,".",G13," ="," ",F13)</f>
         <v/>
       </c>
@@ -1612,11 +1649,11 @@
           <t>productline9</t>
         </is>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <f>CONCATENATE(A14," ",D14," ",E14," ","="," ","'",G14,"'",";")</f>
         <v/>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f>CONCATENATE("emxFramework.Range.",D14,,".",G14," ="," ",F14)</f>
         <v/>
       </c>
@@ -1656,11 +1693,11 @@
           <t>productline10</t>
         </is>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <f>CONCATENATE(A15," ",D15," ",E15," ","="," ","'",G15,"'",";")</f>
         <v/>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f>CONCATENATE("emxFramework.Range.",D15,,".",G15," ="," ",F15)</f>
         <v/>
       </c>
@@ -1700,11 +1737,11 @@
           <t>productline11</t>
         </is>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <f>CONCATENATE(A16," ",D16," ",E16," ","="," ","'",G16,"'",";")</f>
         <v/>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f>CONCATENATE("emxFramework.Range.",D16,,".",G16," ="," ",F16)</f>
         <v/>
       </c>
@@ -1744,11 +1781,11 @@
           <t>productline12</t>
         </is>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f>CONCATENATE(A17," ",D17," ",E17," ","="," ","'",G17,"'",";")</f>
         <v/>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f>CONCATENATE("emxFramework.Range.",D17,,".",G17," ="," ",F17)</f>
         <v/>
       </c>
@@ -1788,11 +1825,11 @@
           <t>productline13</t>
         </is>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <f>CONCATENATE(A18," ",D18," ",E18," ","="," ","'",G18,"'",";")</f>
         <v/>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f>CONCATENATE("emxFramework.Range.",D18,,".",G18," ="," ",F18)</f>
         <v/>
       </c>
@@ -1832,11 +1869,11 @@
           <t>productline14</t>
         </is>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <f>CONCATENATE(A19," ",D19," ",E19," ","="," ","'",G19,"'",";")</f>
         <v/>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f>CONCATENATE("emxFramework.Range.",D19,,".",G19," ="," ",F19)</f>
         <v/>
       </c>
@@ -1876,11 +1913,11 @@
           <t>productline15</t>
         </is>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <f>CONCATENATE(A20," ",D20," ",E20," ","="," ","'",G20,"'",";")</f>
         <v/>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <f>CONCATENATE("emxFramework.Range.",D20,,".",G20," ="," ",F20)</f>
         <v/>
       </c>
@@ -1920,11 +1957,11 @@
           <t>productline16</t>
         </is>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <f>CONCATENATE(A21," ",D21," ",E21," ","="," ","'",G21,"'",";")</f>
         <v/>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f>CONCATENATE("emxFramework.Range.",D21,,".",G21," ="," ",F21)</f>
         <v/>
       </c>
@@ -1956,11 +1993,11 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22">
+      <c r="H22" s="1">
         <f>CONCATENATE(A22," ",D22," ",E22," ","="," ","'",G22,"'",";")</f>
         <v/>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f>CONCATENATE("emxFramework.Range.",D22,,".",G22," ="," ",F22)</f>
         <v/>
       </c>
@@ -2000,11 +2037,11 @@
           <t>processconnection1</t>
         </is>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <f>CONCATENATE(A23," ",D23," ",E23," ","="," ","'",G23,"'",";")</f>
         <v/>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <f>CONCATENATE("emxFramework.Range.",D23,,".",G23," ="," ",F23)</f>
         <v/>
       </c>
@@ -2044,11 +2081,11 @@
           <t>processconnection2</t>
         </is>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <f>CONCATENATE(A24," ",D24," ",E24," ","="," ","'",G24,"'",";")</f>
         <v/>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <f>CONCATENATE("emxFramework.Range.",D24,,".",G24," ="," ",F24)</f>
         <v/>
       </c>
@@ -2088,11 +2125,11 @@
           <t>processconnection3</t>
         </is>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <f>CONCATENATE(A25," ",D25," ",E25," ","="," ","'",G25,"'",";")</f>
         <v/>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <f>CONCATENATE("emxFramework.Range.",D25,,".",G25," ="," ",F25)</f>
         <v/>
       </c>
@@ -2132,11 +2169,11 @@
           <t>processconnection4</t>
         </is>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <f>CONCATENATE(A26," ",D26," ",E26," ","="," ","'",G26,"'",";")</f>
         <v/>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <f>CONCATENATE("emxFramework.Range.",D26,,".",G26," ="," ",F26)</f>
         <v/>
       </c>
@@ -2176,11 +2213,11 @@
           <t>processconnection5</t>
         </is>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <f>CONCATENATE(A27," ",D27," ",E27," ","="," ","'",G27,"'",";")</f>
         <v/>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <f>CONCATENATE("emxFramework.Range.",D27,,".",G27," ="," ",F27)</f>
         <v/>
       </c>
@@ -2220,11 +2257,11 @@
           <t>processconnection6</t>
         </is>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <f>CONCATENATE(A28," ",D28," ",E28," ","="," ","'",G28,"'",";")</f>
         <v/>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <f>CONCATENATE("emxFramework.Range.",D28,,".",G28," ="," ",F28)</f>
         <v/>
       </c>
@@ -2264,11 +2301,11 @@
           <t>processconnection7</t>
         </is>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <f>CONCATENATE(A29," ",D29," ",E29," ","="," ","'",G29,"'",";")</f>
         <v/>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <f>CONCATENATE("emxFramework.Range.",D29,,".",G29," ="," ",F29)</f>
         <v/>
       </c>
@@ -2308,11 +2345,11 @@
           <t>processconnection8</t>
         </is>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <f>CONCATENATE(A30," ",D30," ",E30," ","="," ","'",G30,"'",";")</f>
         <v/>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <f>CONCATENATE("emxFramework.Range.",D30,,".",G30," ="," ",F30)</f>
         <v/>
       </c>
@@ -2352,11 +2389,11 @@
           <t>processconnection9</t>
         </is>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <f>CONCATENATE(A31," ",D31," ",E31," ","="," ","'",G31,"'",";")</f>
         <v/>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <f>CONCATENATE("emxFramework.Range.",D31,,".",G31," ="," ",F31)</f>
         <v/>
       </c>
@@ -2396,11 +2433,11 @@
           <t>processconnection10</t>
         </is>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <f>CONCATENATE(A32," ",D32," ",E32," ","="," ","'",G32,"'",";")</f>
         <v/>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <f>CONCATENATE("emxFramework.Range.",D32,,".",G32," ="," ",F32)</f>
         <v/>
       </c>
@@ -2440,11 +2477,11 @@
           <t>processconnection11</t>
         </is>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <f>CONCATENATE(A33," ",D33," ",E33," ","="," ","'",G33,"'",";")</f>
         <v/>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <f>CONCATENATE("emxFramework.Range.",D33,,".",G33," ="," ",F33)</f>
         <v/>
       </c>
@@ -2484,11 +2521,11 @@
           <t>processconnection12</t>
         </is>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <f>CONCATENATE(A34," ",D34," ",E34," ","="," ","'",G34,"'",";")</f>
         <v/>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <f>CONCATENATE("emxFramework.Range.",D34,,".",G34," ="," ",F34)</f>
         <v/>
       </c>
@@ -2528,11 +2565,11 @@
           <t>processconnection13</t>
         </is>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <f>CONCATENATE(A35," ",D35," ",E35," ","="," ","'",G35,"'",";")</f>
         <v/>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <f>CONCATENATE("emxFramework.Range.",D35,,".",G35," ="," ",F35)</f>
         <v/>
       </c>
@@ -2572,11 +2609,11 @@
           <t>processconnection14</t>
         </is>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <f>CONCATENATE(A36," ",D36," ",E36," ","="," ","'",G36,"'",";")</f>
         <v/>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <f>CONCATENATE("emxFramework.Range.",D36,,".",G36," ="," ",F36)</f>
         <v/>
       </c>
@@ -2616,11 +2653,11 @@
           <t>processconnection15</t>
         </is>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <f>CONCATENATE(A37," ",D37," ",E37," ","="," ","'",G37,"'",";")</f>
         <v/>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <f>CONCATENATE("emxFramework.Range.",D37,,".",G37," ="," ",F37)</f>
         <v/>
       </c>
@@ -2652,11 +2689,11 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38">
+      <c r="H38" s="1">
         <f>CONCATENATE(A38," ",D38," ",E38," ","="," ","'",G38,"'",";")</f>
         <v/>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <f>CONCATENATE("emxFramework.Range.",D38,,".",G38," ="," ",F38)</f>
         <v/>
       </c>
@@ -2696,11 +2733,11 @@
           <t>contactmaterial1</t>
         </is>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <f>CONCATENATE(A39," ",D39," ",E39," ","="," ","'",G39,"'",";")</f>
         <v/>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <f>CONCATENATE("emxFramework.Range.",D39,,".",G39," ="," ",F39)</f>
         <v/>
       </c>
@@ -2740,11 +2777,11 @@
           <t>contactmaterial2</t>
         </is>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <f>CONCATENATE(A40," ",D40," ",E40," ","="," ","'",G40,"'",";")</f>
         <v/>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <f>CONCATENATE("emxFramework.Range.",D40,,".",G40," ="," ",F40)</f>
         <v/>
       </c>
@@ -2784,11 +2821,11 @@
           <t>contactmaterial3</t>
         </is>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <f>CONCATENATE(A41," ",D41," ",E41," ","="," ","'",G41,"'",";")</f>
         <v/>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <f>CONCATENATE("emxFramework.Range.",D41,,".",G41," ="," ",F41)</f>
         <v/>
       </c>
@@ -2828,11 +2865,11 @@
           <t>contactmaterial4</t>
         </is>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <f>CONCATENATE(A42," ",D42," ",E42," ","="," ","'",G42,"'",";")</f>
         <v/>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <f>CONCATENATE("emxFramework.Range.",D42,,".",G42," ="," ",F42)</f>
         <v/>
       </c>
@@ -2872,11 +2909,11 @@
           <t>contactmaterial5</t>
         </is>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <f>CONCATENATE(A43," ",D43," ",E43," ","="," ","'",G43,"'",";")</f>
         <v/>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <f>CONCATENATE("emxFramework.Range.",D43,,".",G43," ="," ",F43)</f>
         <v/>
       </c>
@@ -2916,11 +2953,11 @@
           <t>contactmaterial6</t>
         </is>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <f>CONCATENATE(A44," ",D44," ",E44," ","="," ","'",G44,"'",";")</f>
         <v/>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <f>CONCATENATE("emxFramework.Range.",D44,,".",G44," ="," ",F44)</f>
         <v/>
       </c>
@@ -2960,11 +2997,11 @@
           <t>contactmaterial7</t>
         </is>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <f>CONCATENATE(A45," ",D45," ",E45," ","="," ","'",G45,"'",";")</f>
         <v/>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f>CONCATENATE("emxFramework.Range.",D45,,".",G45," ="," ",F45)</f>
         <v/>
       </c>
@@ -3004,11 +3041,11 @@
           <t>contactmaterial8</t>
         </is>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <f>CONCATENATE(A46," ",D46," ",E46," ","="," ","'",G46,"'",";")</f>
         <v/>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <f>CONCATENATE("emxFramework.Range.",D46,,".",G46," ="," ",F46)</f>
         <v/>
       </c>
@@ -3048,11 +3085,11 @@
           <t>contactmaterial9</t>
         </is>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <f>CONCATENATE(A47," ",D47," ",E47," ","="," ","'",G47,"'",";")</f>
         <v/>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <f>CONCATENATE("emxFramework.Range.",D47,,".",G47," ="," ",F47)</f>
         <v/>
       </c>
@@ -3092,11 +3129,11 @@
           <t>contactmaterial10</t>
         </is>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <f>CONCATENATE(A48," ",D48," ",E48," ","="," ","'",G48,"'",";")</f>
         <v/>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <f>CONCATENATE("emxFramework.Range.",D48,,".",G48," ="," ",F48)</f>
         <v/>
       </c>
@@ -3128,11 +3165,11 @@
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49">
+      <c r="H49" s="1">
         <f>CONCATENATE(A49," ",D49," ",E49," ","="," ","'",G49,"'",";")</f>
         <v/>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <f>CONCATENATE("emxFramework.Range.",D49,,".",G49," ="," ",F49)</f>
         <v/>
       </c>
@@ -3172,11 +3209,11 @@
           <t>oilfill1</t>
         </is>
       </c>
-      <c r="H50">
+      <c r="H50" s="1">
         <f>CONCATENATE(A50," ",D50," ",E50," ","="," ","'",G50,"'",";")</f>
         <v/>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <f>CONCATENATE("emxFramework.Range.",D50,,".",G50," ="," ",F50)</f>
         <v/>
       </c>
@@ -3216,11 +3253,11 @@
           <t>oilfill2</t>
         </is>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <f>CONCATENATE(A51," ",D51," ",E51," ","="," ","'",G51,"'",";")</f>
         <v/>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <f>CONCATENATE("emxFramework.Range.",D51,,".",G51," ="," ",F51)</f>
         <v/>
       </c>
@@ -3260,11 +3297,11 @@
           <t>oilfill3</t>
         </is>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <f>CONCATENATE(A52," ",D52," ",E52," ","="," ","'",G52,"'",";")</f>
         <v/>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <f>CONCATENATE("emxFramework.Range.",D52,,".",G52," ="," ",F52)</f>
         <v/>
       </c>
@@ -3304,11 +3341,11 @@
           <t>oilfill4</t>
         </is>
       </c>
-      <c r="H53">
+      <c r="H53" s="1">
         <f>CONCATENATE(A53," ",D53," ",E53," ","="," ","'",G53,"'",";")</f>
         <v/>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <f>CONCATENATE("emxFramework.Range.",D53,,".",G53," ="," ",F53)</f>
         <v/>
       </c>
@@ -3340,11 +3377,11 @@
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54">
+      <c r="H54" s="1">
         <f>CONCATENATE(A54," ",D54," ",E54," ","="," ","'",G54,"'",";")</f>
         <v/>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <f>CONCATENATE("emxFramework.Range.",D54,,".",G54," ="," ",F54)</f>
         <v/>
       </c>
@@ -3384,11 +3421,11 @@
           <t>ouputsignal1</t>
         </is>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <f>CONCATENATE(A55," ",D55," ",E55," ","="," ","'",G55,"'",";")</f>
         <v/>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <f>CONCATENATE("emxFramework.Range.",D55,,".",G55," ="," ",F55)</f>
         <v/>
       </c>
@@ -3420,11 +3457,11 @@
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56">
+      <c r="H56" s="1">
         <f>CONCATENATE(A56," ",D56," ",E56," ","="," ","'",G56,"'",";")</f>
         <v/>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <f>CONCATENATE("emxFramework.Range.",D56,,".",G56," ="," ",F56)</f>
         <v/>
       </c>
@@ -3464,11 +3501,11 @@
           <t>displayoperation1</t>
         </is>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <f>CONCATENATE(A57," ",D57," ",E57," ","="," ","'",G57,"'",";")</f>
         <v/>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <f>CONCATENATE("emxFramework.Range.",D57,,".",G57," ="," ",F57)</f>
         <v/>
       </c>
@@ -3508,11 +3545,11 @@
           <t>displayoperation2</t>
         </is>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <f>CONCATENATE(A58," ",D58," ",E58," ","="," ","'",G58,"'",";")</f>
         <v/>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <f>CONCATENATE("emxFramework.Range.",D58,,".",G58," ="," ",F58)</f>
         <v/>
       </c>
@@ -3544,11 +3581,11 @@
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59">
+      <c r="H59" s="1">
         <f>CONCATENATE(A59," ",D59," ",E59," ","="," ","'",G59,"'",";")</f>
         <v/>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <f>CONCATENATE("emxFramework.Range.",D59,,".",G59," ="," ",F59)</f>
         <v/>
       </c>
@@ -3588,11 +3625,11 @@
           <t>cableentry1</t>
         </is>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <f>CONCATENATE(A60," ",D60," ",E60," ","="," ","'",G60,"'",";")</f>
         <v/>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <f>CONCATENATE("emxFramework.Range.",D60,,".",G60," ="," ",F60)</f>
         <v/>
       </c>
@@ -3632,11 +3669,11 @@
           <t>cableentry2</t>
         </is>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <f>CONCATENATE(A61," ",D61," ",E61," ","="," ","'",G61,"'",";")</f>
         <v/>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <f>CONCATENATE("emxFramework.Range.",D61,,".",G61," ="," ",F61)</f>
         <v/>
       </c>
@@ -3676,11 +3713,11 @@
           <t>cableentry3</t>
         </is>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <f>CONCATENATE(A62," ",D62," ",E62," ","="," ","'",G62,"'",";")</f>
         <v/>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <f>CONCATENATE("emxFramework.Range.",D62,,".",G62," ="," ",F62)</f>
         <v/>
       </c>
@@ -3712,11 +3749,11 @@
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63">
+      <c r="H63" s="1">
         <f>CONCATENATE(A63," ",D63," ",E63," ","="," ","'",G63,"'",";")</f>
         <v/>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <f>CONCATENATE("emxFramework.Range.",D63,,".",G63," ="," ",F63)</f>
         <v/>
       </c>
@@ -3756,11 +3793,11 @@
           <t>explosionproofcertificate1</t>
         </is>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <f>CONCATENATE(A64," ",D64," ",E64," ","="," ","'",G64,"'",";")</f>
         <v/>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <f>CONCATENATE("emxFramework.Range.",D64,,".",G64," ="," ",F64)</f>
         <v/>
       </c>
@@ -3800,11 +3837,11 @@
           <t>explosionproofcertificate2</t>
         </is>
       </c>
-      <c r="H65">
+      <c r="H65" s="1">
         <f>CONCATENATE(A65," ",D65," ",E65," ","="," ","'",G65,"'",";")</f>
         <v/>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <f>CONCATENATE("emxFramework.Range.",D65,,".",G65," ="," ",F65)</f>
         <v/>
       </c>
@@ -3844,11 +3881,11 @@
           <t>explosionproofcertificate3</t>
         </is>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <f>CONCATENATE(A66," ",D66," ",E66," ","="," ","'",G66,"'",";")</f>
         <v/>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <f>CONCATENATE("emxFramework.Range.",D66,,".",G66," ="," ",F66)</f>
         <v/>
       </c>
@@ -3888,11 +3925,11 @@
           <t>explosionproofcertificate4</t>
         </is>
       </c>
-      <c r="H67">
+      <c r="H67" s="1">
         <f>CONCATENATE(A67," ",D67," ",E67," ","="," ","'",G67,"'",";")</f>
         <v/>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <f>CONCATENATE("emxFramework.Range.",D67,,".",G67," ="," ",F67)</f>
         <v/>
       </c>
@@ -3932,11 +3969,11 @@
           <t>explosionproofcertificate5</t>
         </is>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <f>CONCATENATE(A68," ",D68," ",E68," ","="," ","'",G68,"'",";")</f>
         <v/>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <f>CONCATENATE("emxFramework.Range.",D68,,".",G68," ="," ",F68)</f>
         <v/>
       </c>
@@ -3976,11 +4013,11 @@
           <t>explosionproofcertificate6</t>
         </is>
       </c>
-      <c r="H69">
+      <c r="H69" s="1">
         <f>CONCATENATE(A69," ",D69," ",E69," ","="," ","'",G69,"'",";")</f>
         <v/>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <f>CONCATENATE("emxFramework.Range.",D69,,".",G69," ="," ",F69)</f>
         <v/>
       </c>
@@ -4020,11 +4057,11 @@
           <t>explosionproofcertificate7</t>
         </is>
       </c>
-      <c r="H70">
+      <c r="H70" s="1">
         <f>CONCATENATE(A70," ",D70," ",E70," ","="," ","'",G70,"'",";")</f>
         <v/>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <f>CONCATENATE("emxFramework.Range.",D70,,".",G70," ="," ",F70)</f>
         <v/>
       </c>
@@ -4064,11 +4101,11 @@
           <t>explosionproofcertificate8</t>
         </is>
       </c>
-      <c r="H71">
+      <c r="H71" s="1">
         <f>CONCATENATE(A71," ",D71," ",E71," ","="," ","'",G71,"'",";")</f>
         <v/>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <f>CONCATENATE("emxFramework.Range.",D71,,".",G71," ="," ",F71)</f>
         <v/>
       </c>
@@ -4108,11 +4145,11 @@
           <t>explosionproofcertificate9</t>
         </is>
       </c>
-      <c r="H72">
+      <c r="H72" s="1">
         <f>CONCATENATE(A72," ",D72," ",E72," ","="," ","'",G72,"'",";")</f>
         <v/>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <f>CONCATENATE("emxFramework.Range.",D72,,".",G72," ="," ",F72)</f>
         <v/>
       </c>
@@ -4152,11 +4189,11 @@
           <t>explosionproofcertificate10</t>
         </is>
       </c>
-      <c r="H73">
+      <c r="H73" s="1">
         <f>CONCATENATE(A73," ",D73," ",E73," ","="," ","'",G73,"'",";")</f>
         <v/>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <f>CONCATENATE("emxFramework.Range.",D73,,".",G73," ="," ",F73)</f>
         <v/>
       </c>
@@ -4188,11 +4225,11 @@
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74">
+      <c r="H74" s="1">
         <f>CONCATENATE(A74," ",D74," ",E74," ","="," ","'",G74,"'",";")</f>
         <v/>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <f>CONCATENATE("emxFramework.Range.",D74,,".",G74," ="," ",F74)</f>
         <v/>
       </c>
@@ -4232,11 +4269,11 @@
           <t>ratedrange1</t>
         </is>
       </c>
-      <c r="H75">
+      <c r="H75" s="1">
         <f>CONCATENATE(A75," ",D75," ",E75," ","="," ","'",G75,"'",";")</f>
         <v/>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <f>CONCATENATE("emxFramework.Range.",D75,,".",G75," ="," ",F75)</f>
         <v/>
       </c>
@@ -4276,11 +4313,11 @@
           <t>ratedrange2</t>
         </is>
       </c>
-      <c r="H76">
+      <c r="H76" s="1">
         <f>CONCATENATE(A76," ",D76," ",E76," ","="," ","'",G76,"'",";")</f>
         <v/>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <f>CONCATENATE("emxFramework.Range.",D76,,".",G76," ="," ",F76)</f>
         <v/>
       </c>
@@ -4320,11 +4357,11 @@
           <t>ratedrange3</t>
         </is>
       </c>
-      <c r="H77">
+      <c r="H77" s="1">
         <f>CONCATENATE(A77," ",D77," ",E77," ","="," ","'",G77,"'",";")</f>
         <v/>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <f>CONCATENATE("emxFramework.Range.",D77,,".",G77," ="," ",F77)</f>
         <v/>
       </c>
@@ -4364,11 +4401,11 @@
           <t>ratedrange4</t>
         </is>
       </c>
-      <c r="H78">
+      <c r="H78" s="1">
         <f>CONCATENATE(A78," ",D78," ",E78," ","="," ","'",G78,"'",";")</f>
         <v/>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <f>CONCATENATE("emxFramework.Range.",D78,,".",G78," ="," ",F78)</f>
         <v/>
       </c>
@@ -4408,11 +4445,11 @@
           <t>ratedrange5</t>
         </is>
       </c>
-      <c r="H79">
+      <c r="H79" s="1">
         <f>CONCATENATE(A79," ",D79," ",E79," ","="," ","'",G79,"'",";")</f>
         <v/>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <f>CONCATENATE("emxFramework.Range.",D79,,".",G79," ="," ",F79)</f>
         <v/>
       </c>
@@ -4452,11 +4489,11 @@
           <t>ratedrange6</t>
         </is>
       </c>
-      <c r="H80">
+      <c r="H80" s="1">
         <f>CONCATENATE(A80," ",D80," ",E80," ","="," ","'",G80,"'",";")</f>
         <v/>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <f>CONCATENATE("emxFramework.Range.",D80,,".",G80," ="," ",F80)</f>
         <v/>
       </c>
@@ -4496,11 +4533,11 @@
           <t>ratedrange7</t>
         </is>
       </c>
-      <c r="H81">
+      <c r="H81" s="1">
         <f>CONCATENATE(A81," ",D81," ",E81," ","="," ","'",G81,"'",";")</f>
         <v/>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <f>CONCATENATE("emxFramework.Range.",D81,,".",G81," ="," ",F81)</f>
         <v/>
       </c>
@@ -4540,11 +4577,11 @@
           <t>ratedrange8</t>
         </is>
       </c>
-      <c r="H82">
+      <c r="H82" s="1">
         <f>CONCATENATE(A82," ",D82," ",E82," ","="," ","'",G82,"'",";")</f>
         <v/>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <f>CONCATENATE("emxFramework.Range.",D82,,".",G82," ="," ",F82)</f>
         <v/>
       </c>
@@ -4584,11 +4621,11 @@
           <t>ratedrange9</t>
         </is>
       </c>
-      <c r="H83">
+      <c r="H83" s="1">
         <f>CONCATENATE(A83," ",D83," ",E83," ","="," ","'",G83,"'",";")</f>
         <v/>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <f>CONCATENATE("emxFramework.Range.",D83,,".",G83," ="," ",F83)</f>
         <v/>
       </c>
@@ -4628,11 +4665,11 @@
           <t>ratedrange10</t>
         </is>
       </c>
-      <c r="H84">
+      <c r="H84" s="1">
         <f>CONCATENATE(A84," ",D84," ",E84," ","="," ","'",G84,"'",";")</f>
         <v/>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <f>CONCATENATE("emxFramework.Range.",D84,,".",G84," ="," ",F84)</f>
         <v/>
       </c>
@@ -4664,11 +4701,11 @@
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85">
+      <c r="H85" s="1">
         <f>CONCATENATE(A85," ",D85," ",E85," ","="," ","'",G85,"'",";")</f>
         <v/>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <f>CONCATENATE("emxFramework.Range.",D85,,".",G85," ="," ",F85)</f>
         <v/>
       </c>
@@ -4700,11 +4737,11 @@
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86">
+      <c r="H86" s="1">
         <f>CONCATENATE(A86," ",D86," ",E86," ","="," ","'",G86,"'",";")</f>
         <v/>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <f>CONCATENATE("emxFramework.Range.",D86,,".",G86," ="," ",F86)</f>
         <v/>
       </c>
@@ -4736,14 +4773,18 @@
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87">
+      <c r="H87" s="1">
         <f>CONCATENATE(A87," ",D87," ",E87," ","="," ","'",G87,"'",";")</f>
         <v/>
       </c>
-      <c r="I87">
+      <c r="I87" s="2">
         <f>CONCATENATE("emxFramework.Range.",D87,,".",G87," ="," ",F87)</f>
         <v/>
       </c>
+    </row>
+    <row r="88">
+      <c r="H88" s="1" t="n"/>
+      <c r="I88" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/传感器/连续物位测量/静压式液位变送器/迈安德物料定义-01属性表-外购设备-静压式液位变送器.xlsx
+++ b/传感器/连续物位测量/静压式液位变送器/迈安德物料定义-01属性表-外购设备-静压式液位变送器.xlsx
@@ -1028,7 +1028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4711,80 +4711,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>A302</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="D86">
-        <f>"my"&amp;B86&amp;"_"&amp;C86</f>
-        <v/>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" s="1">
-        <f>CONCATENATE(A86," ",D86," ",E86," ","="," ","'",G86,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I86" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D86,,".",G86," ="," ",F86)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>A302</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>MaterialofConstruction</t>
-        </is>
-      </c>
-      <c r="D87">
-        <f>"my"&amp;B87&amp;"_"&amp;C87</f>
-        <v/>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" s="1">
-        <f>CONCATENATE(A87," ",D87," ",E87," ","="," ","'",G87,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I87" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D87,,".",G87," ="," ",F87)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88">
-      <c r="H88" s="1" t="n"/>
-      <c r="I88" s="2" t="n"/>
+      <c r="H86" s="1" t="n"/>
+      <c r="I86" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
